--- a/Priority Effects - Github/Data/Environment/Priority_Effects_Fall_2022_Light.xlsx
+++ b/Priority Effects - Github/Data/Environment/Priority_Effects_Fall_2022_Light.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wynnekat/Priority-Effects/Priority Effects - Github/Data/Environment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFE9307-9D9D-2B4A-A1CD-14687F8C5734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048D4306-D120-344B-96E7-D8CC95DC190A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$1060</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$217</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="16">
   <si>
     <t xml:space="preserve">Block </t>
   </si>
@@ -76,12 +76,6 @@
     <t>NAT</t>
   </si>
   <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>Midlle</t>
-  </si>
-  <si>
     <t>NON</t>
   </si>
 </sst>
@@ -89,11 +83,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,15 +152,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1060"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1234,7 +1244,7 @@
       <c r="A38" s="1">
         <v>5</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1257,7 +1267,7 @@
       <c r="A39" s="1">
         <v>5</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1280,7 +1290,7 @@
       <c r="A40" s="1">
         <v>5</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1303,7 +1313,7 @@
       <c r="A41" s="1">
         <v>5</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1326,7 +1336,7 @@
       <c r="A42" s="1">
         <v>5</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1349,7 +1359,7 @@
       <c r="A43" s="1">
         <v>5</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1924,7 +1934,7 @@
       <c r="A68" s="1">
         <v>6</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -1947,7 +1957,7 @@
       <c r="A69" s="1">
         <v>6</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1970,7 +1980,7 @@
       <c r="A70" s="1">
         <v>6</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -1993,7 +2003,7 @@
       <c r="A71" s="1">
         <v>6</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2016,7 +2026,7 @@
       <c r="A72" s="1">
         <v>6</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -2039,7 +2049,7 @@
       <c r="A73" s="1">
         <v>6</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2062,7 +2072,7 @@
       <c r="A74" s="1">
         <v>4</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2085,7 +2095,7 @@
       <c r="A75" s="1">
         <v>4</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -2108,7 +2118,7 @@
       <c r="A76" s="1">
         <v>4</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2131,7 +2141,7 @@
       <c r="A77" s="1">
         <v>4</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2154,7 +2164,7 @@
       <c r="A78" s="1">
         <v>4</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -2177,7 +2187,7 @@
       <c r="A79" s="1">
         <v>4</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -2614,7 +2624,7 @@
       <c r="A98" s="1">
         <v>2</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -2637,7 +2647,7 @@
       <c r="A99" s="1">
         <v>2</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -2660,7 +2670,7 @@
       <c r="A100" s="1">
         <v>2</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -2683,7 +2693,7 @@
       <c r="A101" s="1">
         <v>2</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -2706,7 +2716,7 @@
       <c r="A102" s="1">
         <v>2</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -2729,7 +2739,7 @@
       <c r="A103" s="1">
         <v>2</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -3028,7 +3038,7 @@
       <c r="A116" s="1">
         <v>1</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -3051,7 +3061,7 @@
       <c r="A117" s="1">
         <v>1</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -3074,7 +3084,7 @@
       <c r="A118" s="1">
         <v>1</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -3097,7 +3107,7 @@
       <c r="A119" s="1">
         <v>1</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -3120,7 +3130,7 @@
       <c r="A120" s="1">
         <v>1</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -3143,7 +3153,7 @@
       <c r="A121" s="1">
         <v>1</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -3990,73 +4000,1393 @@
         <v>0.11388888888888889</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="5">
+        <v>1</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="5">
+        <v>1</v>
+      </c>
+      <c r="E158" s="5">
+        <v>1560</v>
+      </c>
+      <c r="F158" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G158" s="6">
+        <v>0.12013888888888889</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="5">
+        <v>1</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="5">
+        <v>2</v>
+      </c>
+      <c r="E159" s="5">
+        <v>1570</v>
+      </c>
+      <c r="F159" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G159" s="6">
+        <v>0.12013888888888889</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="5">
+        <v>1</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="5">
+        <v>1</v>
+      </c>
+      <c r="E160" s="5">
+        <v>127</v>
+      </c>
+      <c r="F160" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G160" s="6">
+        <v>0.12013888888888889</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="5">
+        <v>1</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="5">
+        <v>2</v>
+      </c>
+      <c r="E161" s="5">
+        <v>303</v>
+      </c>
+      <c r="F161" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G161" s="6">
+        <v>0.12013888888888889</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="5">
+        <v>1</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="5">
+        <v>1</v>
+      </c>
+      <c r="E162" s="5">
+        <v>32</v>
+      </c>
+      <c r="F162" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G162" s="6">
+        <v>0.12013888888888889</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="5">
+        <v>1</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" s="5">
+        <v>2</v>
+      </c>
+      <c r="E163" s="5">
+        <v>30</v>
+      </c>
+      <c r="F163" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G163" s="6">
+        <v>0.12013888888888889</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="5">
+        <v>1</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="5">
+        <v>1</v>
+      </c>
+      <c r="E164" s="5">
+        <v>1589</v>
+      </c>
+      <c r="F164" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G164" s="6">
+        <v>0.12152777777777778</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="5">
+        <v>1</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="5">
+        <v>2</v>
+      </c>
+      <c r="E165" s="5">
+        <v>1562</v>
+      </c>
+      <c r="F165" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G165" s="6">
+        <v>0.12152777777777778</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="5">
+        <v>1</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D166" s="5">
+        <v>1</v>
+      </c>
+      <c r="E166" s="5">
+        <v>105</v>
+      </c>
+      <c r="F166" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G166" s="6">
+        <v>0.12152777777777778</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="5">
+        <v>1</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="5">
+        <v>2</v>
+      </c>
+      <c r="E167" s="5">
+        <v>374</v>
+      </c>
+      <c r="F167" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G167" s="6">
+        <v>0.12152777777777778</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="5">
+        <v>1</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" s="5">
+        <v>1</v>
+      </c>
+      <c r="E168" s="5">
+        <v>97</v>
+      </c>
+      <c r="F168" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G168" s="6">
+        <v>0.12152777777777778</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="5">
+        <v>1</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" s="5">
+        <v>2</v>
+      </c>
+      <c r="E169" s="5">
+        <v>37</v>
+      </c>
+      <c r="F169" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G169" s="6">
+        <v>0.12152777777777778</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="5">
+        <v>1</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="5">
+        <v>1</v>
+      </c>
+      <c r="E170" s="5">
+        <v>1504</v>
+      </c>
+      <c r="F170" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G170" s="6">
+        <v>0.12222222222222223</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="5">
+        <v>1</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="5">
+        <v>2</v>
+      </c>
+      <c r="E171" s="5">
+        <v>1566</v>
+      </c>
+      <c r="F171" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G171" s="6">
+        <v>0.12222222222222223</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="5">
+        <v>1</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="5">
+        <v>1</v>
+      </c>
+      <c r="E172" s="5">
+        <v>147</v>
+      </c>
+      <c r="F172" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G172" s="6">
+        <v>0.12222222222222223</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="5">
+        <v>1</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="5">
+        <v>2</v>
+      </c>
+      <c r="E173" s="5">
+        <v>110</v>
+      </c>
+      <c r="F173" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G173" s="6">
+        <v>0.12222222222222223</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="5">
+        <v>1</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" s="5">
+        <v>1</v>
+      </c>
+      <c r="E174" s="5">
+        <v>51</v>
+      </c>
+      <c r="F174" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G174" s="6">
+        <v>0.12222222222222223</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="5">
+        <v>1</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" s="5">
+        <v>2</v>
+      </c>
+      <c r="E175" s="5">
+        <v>13</v>
+      </c>
+      <c r="F175" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G175" s="6">
+        <v>0.12222222222222223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="5">
+        <v>3</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="1">
+        <v>1</v>
+      </c>
+      <c r="E176" s="5">
+        <v>1693</v>
+      </c>
+      <c r="F176" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G176" s="6">
+        <v>0.10277777777777779</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="5">
+        <v>3</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="1">
+        <v>2</v>
+      </c>
+      <c r="E177" s="5">
+        <v>1597</v>
+      </c>
+      <c r="F177" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G177" s="6">
+        <v>0.10277777777777779</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="5">
+        <v>3</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="1">
+        <v>1</v>
+      </c>
+      <c r="E178" s="5">
+        <v>428</v>
+      </c>
+      <c r="F178" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G178" s="6">
+        <v>0.10277777777777779</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="5">
+        <v>3</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="1">
+        <v>2</v>
+      </c>
+      <c r="E179" s="5">
+        <v>403</v>
+      </c>
+      <c r="F179" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G179" s="6">
+        <v>0.10277777777777779</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="5">
+        <v>3</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" s="1">
+        <v>1</v>
+      </c>
+      <c r="E180" s="5">
+        <v>125</v>
+      </c>
+      <c r="F180" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G180" s="6">
+        <v>0.10277777777777779</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="5">
+        <v>3</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" s="1">
+        <v>2</v>
+      </c>
+      <c r="E181" s="5">
+        <v>81</v>
+      </c>
+      <c r="F181" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G181" s="6">
+        <v>0.10277777777777779</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="7">
+        <v>3</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="1">
+        <v>1</v>
+      </c>
+      <c r="E182" s="5">
+        <v>1688</v>
+      </c>
+      <c r="F182" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G182" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="7">
+        <v>3</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="1">
+        <v>2</v>
+      </c>
+      <c r="E183" s="5">
+        <v>1685</v>
+      </c>
+      <c r="F183" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G183" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="7">
+        <v>3</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1</v>
+      </c>
+      <c r="E184" s="5">
+        <v>329</v>
+      </c>
+      <c r="F184" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G184" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="7">
+        <v>3</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="1">
+        <v>2</v>
+      </c>
+      <c r="E185" s="5">
+        <v>52</v>
+      </c>
+      <c r="F185" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G185" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="7">
+        <v>3</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" s="1">
+        <v>1</v>
+      </c>
+      <c r="E186" s="5">
+        <v>25</v>
+      </c>
+      <c r="F186" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G186" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="7">
+        <v>3</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" s="1">
+        <v>2</v>
+      </c>
+      <c r="E187" s="5">
+        <v>11</v>
+      </c>
+      <c r="F187" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G187" s="6">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="7">
+        <v>3</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="1">
+        <v>1</v>
+      </c>
+      <c r="E188" s="5">
+        <v>1694</v>
+      </c>
+      <c r="F188" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G188" s="6">
+        <v>0.10555555555555556</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="7">
+        <v>3</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="1">
+        <v>2</v>
+      </c>
+      <c r="E189" s="5">
+        <v>1707</v>
+      </c>
+      <c r="F189" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G189" s="6">
+        <v>0.10555555555555556</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="7">
+        <v>3</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="1">
+        <v>1</v>
+      </c>
+      <c r="E190" s="5">
+        <v>338</v>
+      </c>
+      <c r="F190" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G190" s="6">
+        <v>0.10555555555555556</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="7">
+        <v>3</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="1">
+        <v>2</v>
+      </c>
+      <c r="E191" s="5">
+        <v>120</v>
+      </c>
+      <c r="F191" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G191" s="6">
+        <v>0.10555555555555556</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="7">
+        <v>3</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" s="1">
+        <v>1</v>
+      </c>
+      <c r="E192" s="5">
+        <v>133</v>
+      </c>
+      <c r="F192" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G192" s="6">
+        <v>0.10555555555555556</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="7">
+        <v>3</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" s="1">
+        <v>2</v>
+      </c>
+      <c r="E193" s="5">
+        <v>89</v>
+      </c>
+      <c r="F193" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G193" s="6">
+        <v>0.10555555555555556</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="7">
+        <v>3</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="1">
+        <v>1</v>
+      </c>
+      <c r="E194" s="5">
+        <v>1687</v>
+      </c>
+      <c r="F194" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G194" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="7">
+        <v>3</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="1">
+        <v>2</v>
+      </c>
+      <c r="E195" s="5">
+        <v>1703</v>
+      </c>
+      <c r="F195" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G195" s="6">
+        <v>0.10625</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="7">
+        <v>3</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="1">
+        <v>1</v>
+      </c>
+      <c r="E196" s="5">
+        <v>341</v>
+      </c>
+      <c r="F196" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G196" s="6">
+        <v>0.10625</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="7">
+        <v>3</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="1">
+        <v>2</v>
+      </c>
+      <c r="E197" s="5">
+        <v>644</v>
+      </c>
+      <c r="F197" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G197" s="6">
+        <v>0.10625</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="7">
+        <v>3</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" s="1">
+        <v>1</v>
+      </c>
+      <c r="E198" s="5">
+        <v>120</v>
+      </c>
+      <c r="F198" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G198" s="6">
+        <v>0.10625</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="7">
+        <v>3</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" s="1">
+        <v>2</v>
+      </c>
+      <c r="E199" s="5">
+        <v>161</v>
+      </c>
+      <c r="F199" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G199" s="6">
+        <v>0.10625</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="7">
+        <v>3</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="1">
+        <v>1</v>
+      </c>
+      <c r="E200" s="5">
+        <v>1740</v>
+      </c>
+      <c r="F200" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G200" s="6">
+        <v>0.1076388888888889</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="7">
+        <v>3</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="1">
+        <v>2</v>
+      </c>
+      <c r="E201" s="5">
+        <v>1647</v>
+      </c>
+      <c r="F201" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G201" s="6">
+        <v>0.1076388888888889</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="7">
+        <v>3</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="1">
+        <v>1</v>
+      </c>
+      <c r="E202" s="5">
+        <v>1412</v>
+      </c>
+      <c r="F202" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G202" s="6">
+        <v>0.1076388888888889</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="7">
+        <v>3</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="1">
+        <v>2</v>
+      </c>
+      <c r="E203" s="5">
+        <v>1306</v>
+      </c>
+      <c r="F203" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G203" s="6">
+        <v>0.1076388888888889</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="7">
+        <v>3</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" s="1">
+        <v>1</v>
+      </c>
+      <c r="E204" s="5">
+        <v>289</v>
+      </c>
+      <c r="F204" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G204" s="6">
+        <v>0.1076388888888889</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="7">
+        <v>3</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" s="1">
+        <v>2</v>
+      </c>
+      <c r="E205" s="5">
+        <v>986</v>
+      </c>
+      <c r="F205" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G205" s="6">
+        <v>0.1076388888888889</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="5">
+        <v>4</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="1">
+        <v>1</v>
+      </c>
+      <c r="E206" s="5">
+        <v>1640</v>
+      </c>
+      <c r="F206" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G206" s="6">
+        <v>9.6527777777777768E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="5">
+        <v>4</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="1">
+        <v>2</v>
+      </c>
+      <c r="E207" s="5">
+        <v>1706</v>
+      </c>
+      <c r="F207" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G207" s="6">
+        <v>9.6527777777777768E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="5">
+        <v>4</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="1">
+        <v>1</v>
+      </c>
+      <c r="E208" s="5">
+        <v>444</v>
+      </c>
+      <c r="F208" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G208" s="6">
+        <v>9.6527777777777768E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="5">
+        <v>4</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D209" s="1">
+        <v>2</v>
+      </c>
+      <c r="E209" s="5">
+        <v>267</v>
+      </c>
+      <c r="F209" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G209" s="6">
+        <v>9.6527777777777768E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="5">
+        <v>4</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" s="1">
+        <v>1</v>
+      </c>
+      <c r="E210" s="5">
+        <v>104</v>
+      </c>
+      <c r="F210" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G210" s="6">
+        <v>9.6527777777777768E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="5">
+        <v>4</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" s="1">
+        <v>2</v>
+      </c>
+      <c r="E211" s="5">
+        <v>155</v>
+      </c>
+      <c r="F211" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G211" s="6">
+        <v>9.6527777777777768E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="5">
+        <v>4</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="1">
+        <v>1</v>
+      </c>
+      <c r="E212" s="5">
+        <v>1671</v>
+      </c>
+      <c r="F212" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G212" s="6">
+        <v>0.1013888888888889</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="5">
+        <v>4</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" s="1">
+        <v>2</v>
+      </c>
+      <c r="E213" s="5">
+        <v>1703</v>
+      </c>
+      <c r="F213" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G213" s="6">
+        <v>0.1013888888888889</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="5">
+        <v>4</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" s="1">
+        <v>1</v>
+      </c>
+      <c r="E214" s="5">
+        <v>247</v>
+      </c>
+      <c r="F214" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G214" s="6">
+        <v>0.1013888888888889</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="5">
+        <v>4</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D215" s="1">
+        <v>2</v>
+      </c>
+      <c r="E215" s="5">
+        <v>113</v>
+      </c>
+      <c r="F215" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G215" s="6">
+        <v>0.1013888888888889</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="5">
+        <v>4</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D216" s="1">
+        <v>1</v>
+      </c>
+      <c r="E216" s="5">
+        <v>20</v>
+      </c>
+      <c r="F216" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G216" s="6">
+        <v>0.1013888888888889</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="5">
+        <v>4</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D217" s="1">
+        <v>2</v>
+      </c>
+      <c r="E217" s="5">
+        <v>24</v>
+      </c>
+      <c r="F217" s="2">
+        <v>44798</v>
+      </c>
+      <c r="G217" s="6">
+        <v>0.1013888888888889</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4825,1396 +6155,15 @@
     <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1001" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1001" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1001" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1001" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1001" s="5">
-        <v>1560</v>
-      </c>
-      <c r="F1001" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1001" s="6">
-        <v>0.12013888888888889</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1002" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1002" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1002" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1002" s="5">
-        <v>2</v>
-      </c>
-      <c r="E1002" s="5">
-        <v>1570</v>
-      </c>
-      <c r="F1002" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1002" s="6">
-        <v>0.12013888888888889</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1003" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1003" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1003" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1003" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1003" s="5">
-        <v>127</v>
-      </c>
-      <c r="F1003" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1003" s="6">
-        <v>0.12013888888888889</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1004" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1004" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1004" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1004" s="5">
-        <v>2</v>
-      </c>
-      <c r="E1004" s="5">
-        <v>303</v>
-      </c>
-      <c r="F1004" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1004" s="6">
-        <v>0.12013888888888889</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1005" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1005" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1005" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1005" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1005" s="5">
-        <v>32</v>
-      </c>
-      <c r="F1005" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1005" s="6">
-        <v>0.12013888888888889</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1006" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1006" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1006" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1006" s="5">
-        <v>2</v>
-      </c>
-      <c r="E1006" s="5">
-        <v>30</v>
-      </c>
-      <c r="F1006" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1006" s="6">
-        <v>0.12013888888888889</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1007" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1007" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1007" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1007" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1007" s="5">
-        <v>1589</v>
-      </c>
-      <c r="F1007" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1007" s="6">
-        <v>0.12152777777777778</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1008" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1008" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1008" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1008" s="5">
-        <v>2</v>
-      </c>
-      <c r="E1008" s="5">
-        <v>1562</v>
-      </c>
-      <c r="F1008" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1008" s="6">
-        <v>0.12152777777777778</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1009" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1009" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1009" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1009" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1009" s="5">
-        <v>105</v>
-      </c>
-      <c r="F1009" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1009" s="6">
-        <v>0.12152777777777778</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1010" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1010" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1010" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1010" s="5">
-        <v>2</v>
-      </c>
-      <c r="E1010" s="5">
-        <v>374</v>
-      </c>
-      <c r="F1010" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1010" s="6">
-        <v>0.12152777777777778</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1011" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1011" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1011" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1011" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1011" s="5">
-        <v>97</v>
-      </c>
-      <c r="F1011" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1011" s="6">
-        <v>0.12152777777777778</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1012" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1012" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1012" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1012" s="5">
-        <v>2</v>
-      </c>
-      <c r="E1012" s="5">
-        <v>37</v>
-      </c>
-      <c r="F1012" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1012" s="6">
-        <v>0.12152777777777778</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1013" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1013" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1013" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1013" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1013" s="5">
-        <v>1504</v>
-      </c>
-      <c r="F1013" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1013" s="6">
-        <v>0.12222222222222223</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1014" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1014" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1014" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1014" s="5">
-        <v>2</v>
-      </c>
-      <c r="E1014" s="5">
-        <v>1566</v>
-      </c>
-      <c r="F1014" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1014" s="6">
-        <v>0.12222222222222223</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1015" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1015" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1015" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1015" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1015" s="5">
-        <v>147</v>
-      </c>
-      <c r="F1015" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1015" s="6">
-        <v>0.12222222222222223</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1016" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1016" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1016" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1016" s="5">
-        <v>2</v>
-      </c>
-      <c r="E1016" s="5">
-        <v>110</v>
-      </c>
-      <c r="F1016" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1016" s="6">
-        <v>0.12222222222222223</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1017" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1017" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1017" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1017" s="5">
-        <v>1</v>
-      </c>
-      <c r="E1017" s="5">
-        <v>51</v>
-      </c>
-      <c r="F1017" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1017" s="6">
-        <v>0.12222222222222223</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1018" s="5">
-        <v>1</v>
-      </c>
-      <c r="B1018" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1018" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1018" s="5">
-        <v>2</v>
-      </c>
-      <c r="E1018" s="5">
-        <v>13</v>
-      </c>
-      <c r="F1018" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1018" s="6">
-        <v>0.12222222222222223</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1019" s="5">
-        <v>3</v>
-      </c>
-      <c r="B1019" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1019" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1019" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1019" s="5">
-        <v>1693</v>
-      </c>
-      <c r="F1019" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1019" s="6">
-        <v>0.10277777777777779</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1020" s="5">
-        <v>3</v>
-      </c>
-      <c r="B1020" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1020" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1020" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1020" s="5">
-        <v>1597</v>
-      </c>
-      <c r="F1020" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1020" s="6">
-        <v>0.10277777777777779</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1021" s="5">
-        <v>3</v>
-      </c>
-      <c r="B1021" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1021" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1021" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1021" s="5">
-        <v>428</v>
-      </c>
-      <c r="F1021" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1021" s="6">
-        <v>0.10277777777777779</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1022" s="5">
-        <v>3</v>
-      </c>
-      <c r="B1022" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1022" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1022" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1022" s="5">
-        <v>403</v>
-      </c>
-      <c r="F1022" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1022" s="6">
-        <v>0.10277777777777779</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1023" s="5">
-        <v>3</v>
-      </c>
-      <c r="B1023" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1023" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1023" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1023" s="5">
-        <v>125</v>
-      </c>
-      <c r="F1023" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1023" s="6">
-        <v>0.10277777777777779</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1024" s="5">
-        <v>3</v>
-      </c>
-      <c r="B1024" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1024" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1024" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1024" s="5">
-        <v>81</v>
-      </c>
-      <c r="F1024" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1024" s="6">
-        <v>0.10277777777777779</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1025" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1025" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1025" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1025" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1025" s="5">
-        <v>1688</v>
-      </c>
-      <c r="F1025" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1025" s="6">
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1026" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1026" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1026" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1026" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1026" s="5">
-        <v>1685</v>
-      </c>
-      <c r="F1026" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1026" s="6">
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1027" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1027" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1027" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1027" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1027" s="5">
-        <v>329</v>
-      </c>
-      <c r="F1027" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1027" s="6">
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1028" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1028" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1028" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1028" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1028" s="5">
-        <v>52</v>
-      </c>
-      <c r="F1028" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1028" s="6">
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1029" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1029" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1029" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1029" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1029" s="5">
-        <v>25</v>
-      </c>
-      <c r="F1029" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1029" s="6">
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1030" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1030" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1030" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1030" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1030" s="5">
-        <v>11</v>
-      </c>
-      <c r="F1030" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1030" s="6">
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1031" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1031" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1031" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1031" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1031" s="5">
-        <v>1694</v>
-      </c>
-      <c r="F1031" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1031" s="6">
-        <v>0.10555555555555556</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1032" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1032" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1032" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1032" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1032" s="5">
-        <v>1707</v>
-      </c>
-      <c r="F1032" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1032" s="6">
-        <v>0.10555555555555556</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1033" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1033" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1033" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1033" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1033" s="5">
-        <v>338</v>
-      </c>
-      <c r="F1033" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1033" s="6">
-        <v>0.10555555555555556</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1034" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1034" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1034" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1034" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1034" s="5">
-        <v>120</v>
-      </c>
-      <c r="F1034" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1034" s="6">
-        <v>0.10555555555555556</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1035" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1035" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1035" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1035" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1035" s="5">
-        <v>133</v>
-      </c>
-      <c r="F1035" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1035" s="6">
-        <v>0.10555555555555556</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1036" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1036" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1036" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1036" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1036" s="5">
-        <v>89</v>
-      </c>
-      <c r="F1036" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1036" s="6">
-        <v>0.10555555555555556</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1037" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1037" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1037" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1037" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1037" s="5">
-        <v>1687</v>
-      </c>
-      <c r="F1037" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1037" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1038" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1038" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1038" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1038" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1038" s="5">
-        <v>1703</v>
-      </c>
-      <c r="F1038" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1038" s="6">
-        <v>0.10625</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1039" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1039" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1039" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1039" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1039" s="5">
-        <v>341</v>
-      </c>
-      <c r="F1039" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1039" s="6">
-        <v>0.10625</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1040" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1040" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1040" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1040" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1040" s="5">
-        <v>644</v>
-      </c>
-      <c r="F1040" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1040" s="6">
-        <v>0.10625</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1041" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1041" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1041" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1041" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1041" s="5">
-        <v>120</v>
-      </c>
-      <c r="F1041" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1041" s="6">
-        <v>0.10625</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1042" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1042" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1042" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1042" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1042" s="5">
-        <v>161</v>
-      </c>
-      <c r="F1042" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1042" s="6">
-        <v>0.10625</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1043" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1043" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1043" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1043" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1043" s="5">
-        <v>1740</v>
-      </c>
-      <c r="F1043" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1043" s="6">
-        <v>0.1076388888888889</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1044" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1044" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1044" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1044" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1044" s="5">
-        <v>1647</v>
-      </c>
-      <c r="F1044" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1044" s="6">
-        <v>0.1076388888888889</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1045" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1045" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1045" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1045" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1045" s="5">
-        <v>1412</v>
-      </c>
-      <c r="F1045" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1045" s="6">
-        <v>0.1076388888888889</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1046" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1046" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1046" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1046" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1046" s="5">
-        <v>1306</v>
-      </c>
-      <c r="F1046" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1046" s="6">
-        <v>0.1076388888888889</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1047" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1047" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1047" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1047" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1047" s="5">
-        <v>289</v>
-      </c>
-      <c r="F1047" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1047" s="6">
-        <v>0.1076388888888889</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1048" s="7">
-        <v>3</v>
-      </c>
-      <c r="B1048" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1048" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1048" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1048" s="5">
-        <v>986</v>
-      </c>
-      <c r="F1048" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1048" s="6">
-        <v>0.1076388888888889</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1049" s="5">
-        <v>4</v>
-      </c>
-      <c r="B1049" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1049" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1049" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1049" s="5">
-        <v>1640</v>
-      </c>
-      <c r="F1049" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1049" s="6">
-        <v>9.6527777777777768E-2</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1050" s="5">
-        <v>4</v>
-      </c>
-      <c r="B1050" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1050" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1050" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1050" s="5">
-        <v>1706</v>
-      </c>
-      <c r="F1050" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1050" s="6">
-        <v>9.6527777777777768E-2</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1051" s="5">
-        <v>4</v>
-      </c>
-      <c r="B1051" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1051" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1051" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1051" s="5">
-        <v>444</v>
-      </c>
-      <c r="F1051" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1051" s="6">
-        <v>9.6527777777777768E-2</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1052" s="5">
-        <v>4</v>
-      </c>
-      <c r="B1052" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1052" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1052" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1052" s="5">
-        <v>267</v>
-      </c>
-      <c r="F1052" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1052" s="6">
-        <v>9.6527777777777768E-2</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1053" s="5">
-        <v>4</v>
-      </c>
-      <c r="B1053" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1053" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1053" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1053" s="5">
-        <v>104</v>
-      </c>
-      <c r="F1053" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1053" s="6">
-        <v>9.6527777777777768E-2</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1054" s="5">
-        <v>4</v>
-      </c>
-      <c r="B1054" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1054" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1054" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1054" s="5">
-        <v>155</v>
-      </c>
-      <c r="F1054" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1054" s="6">
-        <v>9.6527777777777768E-2</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1055" s="5">
-        <v>4</v>
-      </c>
-      <c r="B1055" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1055" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1055" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1055" s="5">
-        <v>1671</v>
-      </c>
-      <c r="F1055" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1055" s="6">
-        <v>0.1013888888888889</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1056" s="5">
-        <v>4</v>
-      </c>
-      <c r="B1056" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1056" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1056" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1056" s="5">
-        <v>1703</v>
-      </c>
-      <c r="F1056" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1056" s="6">
-        <v>0.1013888888888889</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1057" s="5">
-        <v>4</v>
-      </c>
-      <c r="B1057" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1057" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1057" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1057" s="5">
-        <v>247</v>
-      </c>
-      <c r="F1057" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1057" s="6">
-        <v>0.1013888888888889</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1058" s="5">
-        <v>4</v>
-      </c>
-      <c r="B1058" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1058" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1058" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1058" s="5">
-        <v>113</v>
-      </c>
-      <c r="F1058" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1058" s="6">
-        <v>0.1013888888888889</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1059" s="5">
-        <v>4</v>
-      </c>
-      <c r="B1059" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1059" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1059" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1059" s="5">
-        <v>20</v>
-      </c>
-      <c r="F1059" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1059" s="6">
-        <v>0.1013888888888889</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1060" s="5">
-        <v>4</v>
-      </c>
-      <c r="B1060" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1060" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1060" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1060" s="5">
-        <v>24</v>
-      </c>
-      <c r="F1060" s="2">
-        <v>44798</v>
-      </c>
-      <c r="G1060" s="6">
-        <v>0.1013888888888889</v>
-      </c>
-    </row>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:G1060" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
